--- a/xlsx/天主教_intext.xlsx
+++ b/xlsx/天主教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2127">
   <si>
     <t>天主教</t>
   </si>
@@ -29,7 +29,7 @@
     <t>基督教</t>
   </si>
   <si>
-    <t>政策_政策_美國_天主教</t>
+    <t>体育运动_体育运动_赌博_天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -2376,6 +2376,12 @@
   </si>
   <si>
     <t>召會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8B%92%E5%BA%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>瓦勒度派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A2%E5%BE%A9%E9%81%8B%E5%8B%95</t>
@@ -6738,7 +6744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20451,7 +20457,7 @@
         <v>788</v>
       </c>
       <c r="G473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H473" t="s">
         <v>4</v>
@@ -20480,7 +20486,7 @@
         <v>790</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -20770,7 +20776,7 @@
         <v>810</v>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -20799,7 +20805,7 @@
         <v>812</v>
       </c>
       <c r="G485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H485" t="s">
         <v>4</v>
@@ -20857,7 +20863,7 @@
         <v>816</v>
       </c>
       <c r="G487" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -20886,7 +20892,7 @@
         <v>818</v>
       </c>
       <c r="G488" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -20915,7 +20921,7 @@
         <v>820</v>
       </c>
       <c r="G489" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -20944,7 +20950,7 @@
         <v>822</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -20973,7 +20979,7 @@
         <v>824</v>
       </c>
       <c r="G491" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -20996,13 +21002,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>607</v>
+        <v>825</v>
       </c>
       <c r="F492" t="s">
-        <v>608</v>
+        <v>826</v>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -21025,13 +21031,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>815</v>
+        <v>607</v>
       </c>
       <c r="F493" t="s">
-        <v>816</v>
+        <v>608</v>
       </c>
       <c r="G493" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -21054,13 +21060,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F494" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -21118,7 +21124,7 @@
         <v>830</v>
       </c>
       <c r="G496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -21147,7 +21153,7 @@
         <v>832</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -21176,7 +21182,7 @@
         <v>834</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -21205,7 +21211,7 @@
         <v>836</v>
       </c>
       <c r="G499" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -21234,7 +21240,7 @@
         <v>838</v>
       </c>
       <c r="G500" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -21379,7 +21385,7 @@
         <v>848</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
@@ -21408,7 +21414,7 @@
         <v>850</v>
       </c>
       <c r="G506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -21437,7 +21443,7 @@
         <v>852</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -21466,7 +21472,7 @@
         <v>854</v>
       </c>
       <c r="G508" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -21495,7 +21501,7 @@
         <v>856</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -21524,7 +21530,7 @@
         <v>858</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -21547,13 +21553,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>419</v>
+        <v>859</v>
       </c>
       <c r="F511" t="s">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="G511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -21576,13 +21582,13 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>859</v>
+        <v>419</v>
       </c>
       <c r="F512" t="s">
-        <v>860</v>
+        <v>420</v>
       </c>
       <c r="G512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H512" t="s">
         <v>4</v>
@@ -21611,7 +21617,7 @@
         <v>862</v>
       </c>
       <c r="G513" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -21640,7 +21646,7 @@
         <v>864</v>
       </c>
       <c r="G514" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -21669,7 +21675,7 @@
         <v>866</v>
       </c>
       <c r="G515" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -21727,7 +21733,7 @@
         <v>870</v>
       </c>
       <c r="G517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -21756,7 +21762,7 @@
         <v>872</v>
       </c>
       <c r="G518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -21785,7 +21791,7 @@
         <v>874</v>
       </c>
       <c r="G519" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -21814,7 +21820,7 @@
         <v>876</v>
       </c>
       <c r="G520" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -21843,7 +21849,7 @@
         <v>878</v>
       </c>
       <c r="G521" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -21930,7 +21936,7 @@
         <v>884</v>
       </c>
       <c r="G524" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -21953,13 +21959,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>9</v>
+        <v>885</v>
       </c>
       <c r="F525" t="s">
-        <v>10</v>
+        <v>886</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -21982,13 +21988,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>885</v>
+        <v>9</v>
       </c>
       <c r="F526" t="s">
-        <v>886</v>
+        <v>10</v>
       </c>
       <c r="G526" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -22011,13 +22017,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>13</v>
+        <v>887</v>
       </c>
       <c r="F527" t="s">
-        <v>14</v>
+        <v>888</v>
       </c>
       <c r="G527" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -22040,13 +22046,13 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F528" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -22069,10 +22075,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>887</v>
+        <v>81</v>
       </c>
       <c r="F529" t="s">
-        <v>888</v>
+        <v>82</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -22127,13 +22133,13 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>63</v>
+        <v>891</v>
       </c>
       <c r="F531" t="s">
-        <v>64</v>
+        <v>892</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -22156,10 +22162,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>891</v>
+        <v>63</v>
       </c>
       <c r="F532" t="s">
-        <v>892</v>
+        <v>64</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -22220,7 +22226,7 @@
         <v>896</v>
       </c>
       <c r="G534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -22249,7 +22255,7 @@
         <v>898</v>
       </c>
       <c r="G535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -22272,13 +22278,13 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>703</v>
+        <v>899</v>
       </c>
       <c r="F536" t="s">
-        <v>704</v>
+        <v>900</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -22301,13 +22307,13 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
       <c r="F537" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="G537" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -22330,13 +22336,13 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>899</v>
+        <v>609</v>
       </c>
       <c r="F538" t="s">
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="G538" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -22365,7 +22371,7 @@
         <v>902</v>
       </c>
       <c r="G539" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H539" t="s">
         <v>4</v>
@@ -22446,13 +22452,13 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="F542" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -22475,13 +22481,13 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="F543" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="G543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H543" t="s">
         <v>4</v>
@@ -22510,7 +22516,7 @@
         <v>910</v>
       </c>
       <c r="G544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -22539,7 +22545,7 @@
         <v>912</v>
       </c>
       <c r="G545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -22568,7 +22574,7 @@
         <v>914</v>
       </c>
       <c r="G546" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -22591,13 +22597,13 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>227</v>
+        <v>915</v>
       </c>
       <c r="F547" t="s">
-        <v>228</v>
+        <v>916</v>
       </c>
       <c r="G547" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -22620,10 +22626,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>915</v>
+        <v>227</v>
       </c>
       <c r="F548" t="s">
-        <v>916</v>
+        <v>228</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -22678,10 +22684,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>227</v>
+        <v>919</v>
       </c>
       <c r="F550" t="s">
-        <v>228</v>
+        <v>920</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -22707,10 +22713,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>919</v>
+        <v>227</v>
       </c>
       <c r="F551" t="s">
-        <v>920</v>
+        <v>228</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -22939,10 +22945,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>151</v>
+        <v>935</v>
       </c>
       <c r="F559" t="s">
-        <v>152</v>
+        <v>936</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -22968,13 +22974,13 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>867</v>
+        <v>151</v>
       </c>
       <c r="F560" t="s">
-        <v>868</v>
+        <v>152</v>
       </c>
       <c r="G560" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H560" t="s">
         <v>4</v>
@@ -22997,13 +23003,13 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>935</v>
+        <v>869</v>
       </c>
       <c r="F561" t="s">
-        <v>936</v>
+        <v>870</v>
       </c>
       <c r="G561" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H561" t="s">
         <v>4</v>
@@ -23177,7 +23183,7 @@
         <v>948</v>
       </c>
       <c r="G567" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H567" t="s">
         <v>4</v>
@@ -23200,13 +23206,13 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>201</v>
+        <v>949</v>
       </c>
       <c r="F568" t="s">
-        <v>202</v>
+        <v>950</v>
       </c>
       <c r="G568" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H568" t="s">
         <v>4</v>
@@ -23229,13 +23235,13 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>949</v>
+        <v>201</v>
       </c>
       <c r="F569" t="s">
-        <v>950</v>
+        <v>202</v>
       </c>
       <c r="G569" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -23264,7 +23270,7 @@
         <v>952</v>
       </c>
       <c r="G570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H570" t="s">
         <v>4</v>
@@ -23293,7 +23299,7 @@
         <v>954</v>
       </c>
       <c r="G571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -23351,7 +23357,7 @@
         <v>958</v>
       </c>
       <c r="G573" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -23380,7 +23386,7 @@
         <v>960</v>
       </c>
       <c r="G574" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -23403,10 +23409,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>167</v>
+        <v>961</v>
       </c>
       <c r="F575" t="s">
-        <v>168</v>
+        <v>962</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -23432,10 +23438,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>961</v>
+        <v>167</v>
       </c>
       <c r="F576" t="s">
-        <v>962</v>
+        <v>168</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -23490,10 +23496,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>303</v>
+        <v>965</v>
       </c>
       <c r="F578" t="s">
-        <v>304</v>
+        <v>966</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -23519,10 +23525,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>965</v>
+        <v>303</v>
       </c>
       <c r="F579" t="s">
-        <v>966</v>
+        <v>304</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -23548,10 +23554,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>57</v>
+        <v>967</v>
       </c>
       <c r="F580" t="s">
-        <v>58</v>
+        <v>968</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -23577,10 +23583,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>325</v>
+        <v>57</v>
       </c>
       <c r="F581" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -23606,10 +23612,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>967</v>
+        <v>325</v>
       </c>
       <c r="F582" t="s">
-        <v>968</v>
+        <v>326</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -23728,7 +23734,7 @@
         <v>976</v>
       </c>
       <c r="G586" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -23757,7 +23763,7 @@
         <v>978</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -23786,7 +23792,7 @@
         <v>980</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -23809,10 +23815,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>71</v>
+        <v>981</v>
       </c>
       <c r="F589" t="s">
-        <v>72</v>
+        <v>982</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -23838,10 +23844,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>981</v>
+        <v>71</v>
       </c>
       <c r="F590" t="s">
-        <v>982</v>
+        <v>72</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -23902,7 +23908,7 @@
         <v>986</v>
       </c>
       <c r="G592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -23960,7 +23966,7 @@
         <v>990</v>
       </c>
       <c r="G594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H594" t="s">
         <v>4</v>
@@ -24047,7 +24053,7 @@
         <v>996</v>
       </c>
       <c r="G597" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H597" t="s">
         <v>4</v>
@@ -24076,7 +24082,7 @@
         <v>998</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -24215,10 +24221,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>93</v>
+        <v>1007</v>
       </c>
       <c r="F603" t="s">
-        <v>94</v>
+        <v>1008</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -24244,10 +24250,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1007</v>
+        <v>93</v>
       </c>
       <c r="F604" t="s">
-        <v>1008</v>
+        <v>94</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -24273,10 +24279,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>87</v>
+        <v>1009</v>
       </c>
       <c r="F605" t="s">
-        <v>88</v>
+        <v>1010</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -24302,10 +24308,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1009</v>
+        <v>87</v>
       </c>
       <c r="F606" t="s">
-        <v>1010</v>
+        <v>88</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -24395,7 +24401,7 @@
         <v>1016</v>
       </c>
       <c r="G609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -24424,7 +24430,7 @@
         <v>1018</v>
       </c>
       <c r="G610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -24476,13 +24482,13 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>591</v>
+        <v>1021</v>
       </c>
       <c r="F612" t="s">
-        <v>592</v>
+        <v>1022</v>
       </c>
       <c r="G612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -24505,13 +24511,13 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1021</v>
+        <v>591</v>
       </c>
       <c r="F613" t="s">
-        <v>1022</v>
+        <v>592</v>
       </c>
       <c r="G613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -24685,7 +24691,7 @@
         <v>1034</v>
       </c>
       <c r="G619" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -24714,7 +24720,7 @@
         <v>1036</v>
       </c>
       <c r="G620" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H620" t="s">
         <v>4</v>
@@ -24859,7 +24865,7 @@
         <v>1046</v>
       </c>
       <c r="G625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -24888,7 +24894,7 @@
         <v>1048</v>
       </c>
       <c r="G626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -25120,7 +25126,7 @@
         <v>1064</v>
       </c>
       <c r="G634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -25149,7 +25155,7 @@
         <v>1066</v>
       </c>
       <c r="G635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -25381,7 +25387,7 @@
         <v>1082</v>
       </c>
       <c r="G643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -25410,7 +25416,7 @@
         <v>1084</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -25468,7 +25474,7 @@
         <v>1088</v>
       </c>
       <c r="G646" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -25497,7 +25503,7 @@
         <v>1090</v>
       </c>
       <c r="G647" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -25584,7 +25590,7 @@
         <v>1096</v>
       </c>
       <c r="G650" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H650" t="s">
         <v>4</v>
@@ -25642,7 +25648,7 @@
         <v>1100</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -25729,7 +25735,7 @@
         <v>1106</v>
       </c>
       <c r="G655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H655" t="s">
         <v>4</v>
@@ -25758,7 +25764,7 @@
         <v>1108</v>
       </c>
       <c r="G656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H656" t="s">
         <v>4</v>
@@ -25839,10 +25845,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>625</v>
+        <v>1113</v>
       </c>
       <c r="F659" t="s">
-        <v>626</v>
+        <v>1114</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -25868,10 +25874,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1113</v>
+        <v>625</v>
       </c>
       <c r="F660" t="s">
-        <v>1114</v>
+        <v>626</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -26216,10 +26222,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>259</v>
+        <v>1137</v>
       </c>
       <c r="F672" t="s">
-        <v>260</v>
+        <v>1138</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -26245,10 +26251,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1137</v>
+        <v>259</v>
       </c>
       <c r="F673" t="s">
-        <v>1138</v>
+        <v>260</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -26680,13 +26686,13 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>831</v>
+        <v>1167</v>
       </c>
       <c r="F688" t="s">
-        <v>832</v>
+        <v>1168</v>
       </c>
       <c r="G688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -26709,13 +26715,13 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="F689" t="s">
-        <v>1168</v>
+        <v>834</v>
       </c>
       <c r="G689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -27179,7 +27185,7 @@
         <v>1200</v>
       </c>
       <c r="G705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H705" t="s">
         <v>4</v>
@@ -27208,7 +27214,7 @@
         <v>1202</v>
       </c>
       <c r="G706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -27434,13 +27440,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1107</v>
+        <v>1217</v>
       </c>
       <c r="F714" t="s">
-        <v>1108</v>
+        <v>1218</v>
       </c>
       <c r="G714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -27463,13 +27469,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1217</v>
+        <v>1109</v>
       </c>
       <c r="F715" t="s">
-        <v>1218</v>
+        <v>1110</v>
       </c>
       <c r="G715" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -27492,10 +27498,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>897</v>
+        <v>1219</v>
       </c>
       <c r="F716" t="s">
-        <v>898</v>
+        <v>1220</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -27521,10 +27527,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1219</v>
+        <v>899</v>
       </c>
       <c r="F717" t="s">
-        <v>1220</v>
+        <v>900</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -27550,13 +27556,13 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>77</v>
+        <v>1221</v>
       </c>
       <c r="F718" t="s">
-        <v>78</v>
+        <v>1222</v>
       </c>
       <c r="G718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -27579,13 +27585,13 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1221</v>
+        <v>77</v>
       </c>
       <c r="F719" t="s">
-        <v>1222</v>
+        <v>78</v>
       </c>
       <c r="G719" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -27637,10 +27643,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>373</v>
+        <v>1225</v>
       </c>
       <c r="F721" t="s">
-        <v>374</v>
+        <v>1226</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -27666,10 +27672,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1225</v>
+        <v>373</v>
       </c>
       <c r="F722" t="s">
-        <v>1226</v>
+        <v>374</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -28014,10 +28020,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>35</v>
+        <v>1249</v>
       </c>
       <c r="F734" t="s">
-        <v>36</v>
+        <v>1250</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -28043,10 +28049,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1249</v>
+        <v>35</v>
       </c>
       <c r="F735" t="s">
-        <v>1250</v>
+        <v>36</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -28101,10 +28107,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>479</v>
+        <v>1253</v>
       </c>
       <c r="F737" t="s">
-        <v>480</v>
+        <v>1254</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -28130,10 +28136,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1253</v>
+        <v>479</v>
       </c>
       <c r="F738" t="s">
-        <v>1254</v>
+        <v>480</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -28188,10 +28194,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>469</v>
+        <v>1257</v>
       </c>
       <c r="F740" t="s">
-        <v>470</v>
+        <v>1258</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -28217,10 +28223,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1257</v>
+        <v>469</v>
       </c>
       <c r="F741" t="s">
-        <v>1258</v>
+        <v>470</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -28571,7 +28577,7 @@
         <v>1282</v>
       </c>
       <c r="G753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -28600,7 +28606,7 @@
         <v>1284</v>
       </c>
       <c r="G754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -28681,10 +28687,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>889</v>
+        <v>1289</v>
       </c>
       <c r="F757" t="s">
-        <v>890</v>
+        <v>1290</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -28710,10 +28716,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1289</v>
+        <v>891</v>
       </c>
       <c r="F758" t="s">
-        <v>1290</v>
+        <v>892</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -29116,10 +29122,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>891</v>
+        <v>1317</v>
       </c>
       <c r="F772" t="s">
-        <v>892</v>
+        <v>1318</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -29145,10 +29151,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1317</v>
+        <v>893</v>
       </c>
       <c r="F773" t="s">
-        <v>1318</v>
+        <v>894</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -29261,10 +29267,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>591</v>
+        <v>1325</v>
       </c>
       <c r="F777" t="s">
-        <v>592</v>
+        <v>1326</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -29290,10 +29296,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1325</v>
+        <v>591</v>
       </c>
       <c r="F778" t="s">
-        <v>1326</v>
+        <v>592</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -29470,7 +29476,7 @@
         <v>1338</v>
       </c>
       <c r="G784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -29499,7 +29505,7 @@
         <v>1340</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -29609,13 +29615,13 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>173</v>
+        <v>1347</v>
       </c>
       <c r="F789" t="s">
-        <v>174</v>
+        <v>1348</v>
       </c>
       <c r="G789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -29638,10 +29644,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1347</v>
+        <v>173</v>
       </c>
       <c r="F790" t="s">
-        <v>1348</v>
+        <v>174</v>
       </c>
       <c r="G790" t="n">
         <v>2</v>
@@ -29673,7 +29679,7 @@
         <v>1350</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -29870,10 +29876,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1055</v>
+        <v>1363</v>
       </c>
       <c r="F798" t="s">
-        <v>1056</v>
+        <v>1364</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -29899,13 +29905,13 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1363</v>
+        <v>1057</v>
       </c>
       <c r="F799" t="s">
-        <v>1364</v>
+        <v>1058</v>
       </c>
       <c r="G799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -29928,10 +29934,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1013</v>
+        <v>1365</v>
       </c>
       <c r="F800" t="s">
-        <v>1014</v>
+        <v>1366</v>
       </c>
       <c r="G800" t="n">
         <v>2</v>
@@ -29957,13 +29963,13 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1365</v>
+        <v>1015</v>
       </c>
       <c r="F801" t="s">
-        <v>1366</v>
+        <v>1016</v>
       </c>
       <c r="G801" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30247,10 +30253,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>619</v>
+        <v>1385</v>
       </c>
       <c r="F811" t="s">
-        <v>620</v>
+        <v>1386</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -30276,10 +30282,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1385</v>
+        <v>619</v>
       </c>
       <c r="F812" t="s">
-        <v>1386</v>
+        <v>620</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -30305,13 +30311,13 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>173</v>
+        <v>1387</v>
       </c>
       <c r="F813" t="s">
-        <v>174</v>
+        <v>1388</v>
       </c>
       <c r="G813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -30334,13 +30340,13 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1387</v>
+        <v>173</v>
       </c>
       <c r="F814" t="s">
-        <v>1388</v>
+        <v>174</v>
       </c>
       <c r="G814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -30421,10 +30427,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1347</v>
+        <v>1393</v>
       </c>
       <c r="F817" t="s">
-        <v>1348</v>
+        <v>1394</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -30450,10 +30456,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1393</v>
+        <v>1349</v>
       </c>
       <c r="F818" t="s">
-        <v>1394</v>
+        <v>1350</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -30595,10 +30601,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>581</v>
+        <v>1403</v>
       </c>
       <c r="F823" t="s">
-        <v>582</v>
+        <v>1404</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -30624,10 +30630,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1403</v>
+        <v>581</v>
       </c>
       <c r="F824" t="s">
-        <v>1404</v>
+        <v>582</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -30682,10 +30688,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>985</v>
+        <v>1407</v>
       </c>
       <c r="F826" t="s">
-        <v>986</v>
+        <v>1408</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -30711,10 +30717,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>489</v>
+        <v>987</v>
       </c>
       <c r="F827" t="s">
-        <v>490</v>
+        <v>988</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -30740,10 +30746,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1407</v>
+        <v>489</v>
       </c>
       <c r="F828" t="s">
-        <v>1408</v>
+        <v>490</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -30856,10 +30862,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1103</v>
+        <v>1415</v>
       </c>
       <c r="F832" t="s">
-        <v>1104</v>
+        <v>1416</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -30885,10 +30891,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1415</v>
+        <v>1105</v>
       </c>
       <c r="F833" t="s">
-        <v>1416</v>
+        <v>1106</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -30920,7 +30926,7 @@
         <v>1418</v>
       </c>
       <c r="G834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -30949,7 +30955,7 @@
         <v>1420</v>
       </c>
       <c r="G835" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H835" t="s">
         <v>4</v>
@@ -30972,10 +30978,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>703</v>
+        <v>1421</v>
       </c>
       <c r="F836" t="s">
-        <v>704</v>
+        <v>1422</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -31001,13 +31007,13 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1097</v>
+        <v>703</v>
       </c>
       <c r="F837" t="s">
-        <v>1098</v>
+        <v>704</v>
       </c>
       <c r="G837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -31030,13 +31036,13 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1421</v>
+        <v>1099</v>
       </c>
       <c r="F838" t="s">
-        <v>1422</v>
+        <v>1100</v>
       </c>
       <c r="G838" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -31117,10 +31123,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1095</v>
+        <v>1427</v>
       </c>
       <c r="F841" t="s">
-        <v>1096</v>
+        <v>1428</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -31146,10 +31152,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>259</v>
+        <v>1097</v>
       </c>
       <c r="F842" t="s">
-        <v>260</v>
+        <v>1098</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -31175,10 +31181,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1427</v>
+        <v>259</v>
       </c>
       <c r="F843" t="s">
-        <v>1428</v>
+        <v>260</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -31262,10 +31268,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1093</v>
+        <v>1433</v>
       </c>
       <c r="F846" t="s">
-        <v>1094</v>
+        <v>1434</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -31291,10 +31297,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="F847" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -31320,10 +31326,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="F848" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -31349,10 +31355,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1199</v>
+        <v>1091</v>
       </c>
       <c r="F849" t="s">
-        <v>1200</v>
+        <v>1092</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -31378,10 +31384,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1087</v>
+        <v>1201</v>
       </c>
       <c r="F850" t="s">
-        <v>1088</v>
+        <v>1202</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -31407,10 +31413,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1433</v>
+        <v>1089</v>
       </c>
       <c r="F851" t="s">
-        <v>1434</v>
+        <v>1090</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -31465,13 +31471,13 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>407</v>
+        <v>1437</v>
       </c>
       <c r="F853" t="s">
-        <v>408</v>
+        <v>1438</v>
       </c>
       <c r="G853" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H853" t="s">
         <v>4</v>
@@ -31494,13 +31500,13 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1437</v>
+        <v>407</v>
       </c>
       <c r="F854" t="s">
-        <v>1438</v>
+        <v>408</v>
       </c>
       <c r="G854" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -31529,7 +31535,7 @@
         <v>1440</v>
       </c>
       <c r="G855" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H855" t="s">
         <v>4</v>
@@ -31610,13 +31616,13 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>683</v>
+        <v>1445</v>
       </c>
       <c r="F858" t="s">
-        <v>684</v>
+        <v>1446</v>
       </c>
       <c r="G858" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -31639,13 +31645,13 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1445</v>
+        <v>683</v>
       </c>
       <c r="F859" t="s">
-        <v>1446</v>
+        <v>684</v>
       </c>
       <c r="G859" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H859" t="s">
         <v>4</v>
@@ -31703,7 +31709,7 @@
         <v>1450</v>
       </c>
       <c r="G861" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H861" t="s">
         <v>4</v>
@@ -31732,7 +31738,7 @@
         <v>1452</v>
       </c>
       <c r="G862" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H862" t="s">
         <v>4</v>
@@ -31755,10 +31761,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>901</v>
+        <v>1453</v>
       </c>
       <c r="F863" t="s">
-        <v>902</v>
+        <v>1454</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -31784,10 +31790,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>703</v>
+        <v>903</v>
       </c>
       <c r="F864" t="s">
-        <v>704</v>
+        <v>904</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -31813,10 +31819,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1453</v>
+        <v>703</v>
       </c>
       <c r="F865" t="s">
-        <v>1454</v>
+        <v>704</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31842,10 +31848,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>75</v>
+        <v>1455</v>
       </c>
       <c r="F866" t="s">
-        <v>76</v>
+        <v>1456</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -31871,10 +31877,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1455</v>
+        <v>75</v>
       </c>
       <c r="F867" t="s">
-        <v>1456</v>
+        <v>76</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -31906,7 +31912,7 @@
         <v>1458</v>
       </c>
       <c r="G868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -31964,7 +31970,7 @@
         <v>1462</v>
       </c>
       <c r="G870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H870" t="s">
         <v>4</v>
@@ -31993,7 +31999,7 @@
         <v>1464</v>
       </c>
       <c r="G871" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H871" t="s">
         <v>4</v>
@@ -32022,7 +32028,7 @@
         <v>1466</v>
       </c>
       <c r="G872" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -32045,10 +32051,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1085</v>
+        <v>1467</v>
       </c>
       <c r="F873" t="s">
-        <v>1086</v>
+        <v>1468</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -32074,10 +32080,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1467</v>
+        <v>1087</v>
       </c>
       <c r="F874" t="s">
-        <v>1468</v>
+        <v>1088</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -32196,7 +32202,7 @@
         <v>1476</v>
       </c>
       <c r="G878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H878" t="s">
         <v>4</v>
@@ -32225,7 +32231,7 @@
         <v>1478</v>
       </c>
       <c r="G879" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -32341,7 +32347,7 @@
         <v>1486</v>
       </c>
       <c r="G883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -32370,7 +32376,7 @@
         <v>1488</v>
       </c>
       <c r="G884" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -32770,10 +32776,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>849</v>
+        <v>1515</v>
       </c>
       <c r="F898" t="s">
-        <v>850</v>
+        <v>1516</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -32799,10 +32805,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1515</v>
+        <v>851</v>
       </c>
       <c r="F899" t="s">
-        <v>1516</v>
+        <v>852</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -32886,10 +32892,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1241</v>
+        <v>1521</v>
       </c>
       <c r="F902" t="s">
-        <v>1242</v>
+        <v>1522</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -32915,10 +32921,10 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1521</v>
+        <v>1243</v>
       </c>
       <c r="F903" t="s">
-        <v>1522</v>
+        <v>1244</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -33182,7 +33188,7 @@
         <v>1540</v>
       </c>
       <c r="G912" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -33211,7 +33217,7 @@
         <v>1542</v>
       </c>
       <c r="G913" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -33292,10 +33298,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1317</v>
+        <v>1547</v>
       </c>
       <c r="F916" t="s">
-        <v>1318</v>
+        <v>1548</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -33321,10 +33327,10 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>1403</v>
+        <v>1319</v>
       </c>
       <c r="F917" t="s">
-        <v>1404</v>
+        <v>1320</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -33350,13 +33356,13 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="F918" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="G918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -33379,13 +33385,13 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1547</v>
+        <v>1421</v>
       </c>
       <c r="F919" t="s">
-        <v>1548</v>
+        <v>1422</v>
       </c>
       <c r="G919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -33501,7 +33507,7 @@
         <v>1556</v>
       </c>
       <c r="G923" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -33530,7 +33536,7 @@
         <v>1558</v>
       </c>
       <c r="G924" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -33553,13 +33559,13 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>207</v>
+        <v>1559</v>
       </c>
       <c r="F925" t="s">
-        <v>208</v>
+        <v>1560</v>
       </c>
       <c r="G925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -33582,13 +33588,13 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F926" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G926" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H926" t="s">
         <v>4</v>
@@ -33611,10 +33617,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1559</v>
+        <v>211</v>
       </c>
       <c r="F927" t="s">
-        <v>1560</v>
+        <v>212</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -33733,7 +33739,7 @@
         <v>1568</v>
       </c>
       <c r="G931" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -33762,7 +33768,7 @@
         <v>1570</v>
       </c>
       <c r="G932" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H932" t="s">
         <v>4</v>
@@ -33785,13 +33791,13 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>135</v>
+        <v>1571</v>
       </c>
       <c r="F933" t="s">
-        <v>136</v>
+        <v>1572</v>
       </c>
       <c r="G933" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H933" t="s">
         <v>4</v>
@@ -33814,13 +33820,13 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>717</v>
+        <v>135</v>
       </c>
       <c r="F934" t="s">
-        <v>718</v>
+        <v>136</v>
       </c>
       <c r="G934" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -33843,13 +33849,13 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="F935" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="G935" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -33872,13 +33878,13 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>149</v>
+        <v>757</v>
       </c>
       <c r="F936" t="s">
-        <v>150</v>
+        <v>758</v>
       </c>
       <c r="G936" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H936" t="s">
         <v>4</v>
@@ -33901,13 +33907,13 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>1571</v>
+        <v>149</v>
       </c>
       <c r="F937" t="s">
-        <v>1572</v>
+        <v>150</v>
       </c>
       <c r="G937" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H937" t="s">
         <v>4</v>
@@ -34197,7 +34203,7 @@
         <v>1592</v>
       </c>
       <c r="G947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -34226,7 +34232,7 @@
         <v>1594</v>
       </c>
       <c r="G948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H948" t="s">
         <v>4</v>
@@ -34336,13 +34342,13 @@
         <v>951</v>
       </c>
       <c r="E952" t="s">
-        <v>811</v>
+        <v>1601</v>
       </c>
       <c r="F952" t="s">
-        <v>812</v>
+        <v>1602</v>
       </c>
       <c r="G952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H952" t="s">
         <v>4</v>
@@ -34365,13 +34371,13 @@
         <v>952</v>
       </c>
       <c r="E953" t="s">
-        <v>1601</v>
+        <v>813</v>
       </c>
       <c r="F953" t="s">
-        <v>1602</v>
+        <v>814</v>
       </c>
       <c r="G953" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H953" t="s">
         <v>4</v>
@@ -34458,7 +34464,7 @@
         <v>1608</v>
       </c>
       <c r="G956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H956" t="s">
         <v>4</v>
@@ -34516,7 +34522,7 @@
         <v>1612</v>
       </c>
       <c r="G958" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H958" t="s">
         <v>4</v>
@@ -34661,7 +34667,7 @@
         <v>1622</v>
       </c>
       <c r="G963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -34690,7 +34696,7 @@
         <v>1624</v>
       </c>
       <c r="G964" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -34719,7 +34725,7 @@
         <v>1626</v>
       </c>
       <c r="G965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -34777,7 +34783,7 @@
         <v>1630</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -34835,7 +34841,7 @@
         <v>1634</v>
       </c>
       <c r="G969" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -34864,7 +34870,7 @@
         <v>1636</v>
       </c>
       <c r="G970" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -34951,7 +34957,7 @@
         <v>1642</v>
       </c>
       <c r="G973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H973" t="s">
         <v>4</v>
@@ -34980,7 +34986,7 @@
         <v>1644</v>
       </c>
       <c r="G974" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H974" t="s">
         <v>4</v>
@@ -35212,7 +35218,7 @@
         <v>1660</v>
       </c>
       <c r="G982" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H982" t="s">
         <v>4</v>
@@ -35241,7 +35247,7 @@
         <v>1662</v>
       </c>
       <c r="G983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H983" t="s">
         <v>4</v>
@@ -35270,7 +35276,7 @@
         <v>1664</v>
       </c>
       <c r="G984" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H984" t="s">
         <v>4</v>
@@ -35676,7 +35682,7 @@
         <v>1692</v>
       </c>
       <c r="G998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -35705,7 +35711,7 @@
         <v>1694</v>
       </c>
       <c r="G999" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -37184,7 +37190,7 @@
         <v>1796</v>
       </c>
       <c r="G1050" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1050" t="s">
         <v>4</v>
@@ -37213,7 +37219,7 @@
         <v>1798</v>
       </c>
       <c r="G1051" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -37822,7 +37828,7 @@
         <v>1840</v>
       </c>
       <c r="G1072" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1072" t="s">
         <v>4</v>
@@ -37851,7 +37857,7 @@
         <v>1842</v>
       </c>
       <c r="G1073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1073" t="s">
         <v>4</v>
@@ -38460,7 +38466,7 @@
         <v>1884</v>
       </c>
       <c r="G1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1094" t="s">
         <v>4</v>
@@ -38518,7 +38524,7 @@
         <v>1888</v>
       </c>
       <c r="G1096" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1096" t="s">
         <v>4</v>
@@ -38721,7 +38727,7 @@
         <v>1902</v>
       </c>
       <c r="G1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1103" t="s">
         <v>4</v>
@@ -38750,7 +38756,7 @@
         <v>1904</v>
       </c>
       <c r="G1104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1104" t="s">
         <v>4</v>
@@ -38831,13 +38837,13 @@
         <v>1106</v>
       </c>
       <c r="E1107" t="s">
-        <v>857</v>
+        <v>1909</v>
       </c>
       <c r="F1107" t="s">
-        <v>858</v>
+        <v>1910</v>
       </c>
       <c r="G1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1107" t="s">
         <v>4</v>
@@ -38860,10 +38866,10 @@
         <v>1107</v>
       </c>
       <c r="E1108" t="s">
-        <v>1909</v>
+        <v>859</v>
       </c>
       <c r="F1108" t="s">
-        <v>1910</v>
+        <v>860</v>
       </c>
       <c r="G1108" t="n">
         <v>2</v>
@@ -38924,7 +38930,7 @@
         <v>1914</v>
       </c>
       <c r="G1110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1110" t="s">
         <v>4</v>
@@ -38953,7 +38959,7 @@
         <v>1916</v>
       </c>
       <c r="G1111" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1111" t="s">
         <v>4</v>
@@ -38982,7 +38988,7 @@
         <v>1918</v>
       </c>
       <c r="G1112" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39011,7 +39017,7 @@
         <v>1920</v>
       </c>
       <c r="G1113" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H1113" t="s">
         <v>4</v>
@@ -39069,7 +39075,7 @@
         <v>1924</v>
       </c>
       <c r="G1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -39098,7 +39104,7 @@
         <v>1926</v>
       </c>
       <c r="G1116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1116" t="s">
         <v>4</v>
@@ -39156,7 +39162,7 @@
         <v>1930</v>
       </c>
       <c r="G1118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1118" t="s">
         <v>4</v>
@@ -39185,7 +39191,7 @@
         <v>1932</v>
       </c>
       <c r="G1119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1119" t="s">
         <v>4</v>
@@ -39214,7 +39220,7 @@
         <v>1934</v>
       </c>
       <c r="G1120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1120" t="s">
         <v>4</v>
@@ -39272,7 +39278,7 @@
         <v>1938</v>
       </c>
       <c r="G1122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1122" t="s">
         <v>4</v>
@@ -39301,7 +39307,7 @@
         <v>1940</v>
       </c>
       <c r="G1123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1123" t="s">
         <v>4</v>
@@ -39475,7 +39481,7 @@
         <v>1952</v>
       </c>
       <c r="G1129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1129" t="s">
         <v>4</v>
@@ -39504,7 +39510,7 @@
         <v>1954</v>
       </c>
       <c r="G1130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1130" t="s">
         <v>4</v>
@@ -39533,7 +39539,7 @@
         <v>1956</v>
       </c>
       <c r="G1131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1131" t="s">
         <v>4</v>
@@ -39562,7 +39568,7 @@
         <v>1958</v>
       </c>
       <c r="G1132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1132" t="s">
         <v>4</v>
@@ -39591,7 +39597,7 @@
         <v>1960</v>
       </c>
       <c r="G1133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1133" t="s">
         <v>4</v>
@@ -39823,7 +39829,7 @@
         <v>1976</v>
       </c>
       <c r="G1141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1141" t="s">
         <v>4</v>
@@ -39852,7 +39858,7 @@
         <v>1978</v>
       </c>
       <c r="G1142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1142" t="s">
         <v>4</v>
@@ -39881,7 +39887,7 @@
         <v>1980</v>
       </c>
       <c r="G1143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -39910,7 +39916,7 @@
         <v>1982</v>
       </c>
       <c r="G1144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -40339,10 +40345,10 @@
         <v>1158</v>
       </c>
       <c r="E1159" t="s">
-        <v>1555</v>
+        <v>2011</v>
       </c>
       <c r="F1159" t="s">
-        <v>1556</v>
+        <v>2012</v>
       </c>
       <c r="G1159" t="n">
         <v>1</v>
@@ -40368,10 +40374,10 @@
         <v>1159</v>
       </c>
       <c r="E1160" t="s">
-        <v>2011</v>
+        <v>1557</v>
       </c>
       <c r="F1160" t="s">
-        <v>2012</v>
+        <v>1558</v>
       </c>
       <c r="G1160" t="n">
         <v>1</v>
@@ -40519,7 +40525,7 @@
         <v>2022</v>
       </c>
       <c r="G1165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1165" t="s">
         <v>4</v>
@@ -40548,7 +40554,7 @@
         <v>2024</v>
       </c>
       <c r="G1166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1166" t="s">
         <v>4</v>
@@ -40664,7 +40670,7 @@
         <v>2032</v>
       </c>
       <c r="G1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1170" t="s">
         <v>4</v>
@@ -40693,7 +40699,7 @@
         <v>2034</v>
       </c>
       <c r="G1171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1171" t="s">
         <v>4</v>
@@ -40832,10 +40838,10 @@
         <v>1175</v>
       </c>
       <c r="E1176" t="s">
-        <v>871</v>
+        <v>2043</v>
       </c>
       <c r="F1176" t="s">
-        <v>872</v>
+        <v>2044</v>
       </c>
       <c r="G1176" t="n">
         <v>1</v>
@@ -40861,10 +40867,10 @@
         <v>1176</v>
       </c>
       <c r="E1177" t="s">
-        <v>2043</v>
+        <v>873</v>
       </c>
       <c r="F1177" t="s">
-        <v>2044</v>
+        <v>874</v>
       </c>
       <c r="G1177" t="n">
         <v>1</v>
@@ -40954,7 +40960,7 @@
         <v>2050</v>
       </c>
       <c r="G1180" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1180" t="s">
         <v>4</v>
@@ -40983,7 +40989,7 @@
         <v>2052</v>
       </c>
       <c r="G1181" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1181" t="s">
         <v>4</v>
@@ -41128,7 +41134,7 @@
         <v>2062</v>
       </c>
       <c r="G1186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1186" t="s">
         <v>4</v>
@@ -41157,7 +41163,7 @@
         <v>2064</v>
       </c>
       <c r="G1187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1187" t="s">
         <v>4</v>
@@ -41331,7 +41337,7 @@
         <v>2076</v>
       </c>
       <c r="G1193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1193" t="s">
         <v>4</v>
@@ -41360,7 +41366,7 @@
         <v>2078</v>
       </c>
       <c r="G1194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1194" t="s">
         <v>4</v>
@@ -41389,7 +41395,7 @@
         <v>2080</v>
       </c>
       <c r="G1195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1195" t="s">
         <v>4</v>
@@ -41505,7 +41511,7 @@
         <v>2088</v>
       </c>
       <c r="G1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1199" t="s">
         <v>4</v>
@@ -41534,7 +41540,7 @@
         <v>2090</v>
       </c>
       <c r="G1200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1200" t="s">
         <v>4</v>
@@ -41737,7 +41743,7 @@
         <v>2104</v>
       </c>
       <c r="G1207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1207" t="s">
         <v>4</v>
@@ -41766,7 +41772,7 @@
         <v>2106</v>
       </c>
       <c r="G1208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1208" t="s">
         <v>4</v>
@@ -41934,10 +41940,10 @@
         <v>1213</v>
       </c>
       <c r="E1214" t="s">
-        <v>1989</v>
+        <v>2117</v>
       </c>
       <c r="F1214" t="s">
-        <v>1990</v>
+        <v>2118</v>
       </c>
       <c r="G1214" t="n">
         <v>1</v>
@@ -41963,10 +41969,10 @@
         <v>1214</v>
       </c>
       <c r="E1215" t="s">
-        <v>2117</v>
+        <v>1991</v>
       </c>
       <c r="F1215" t="s">
-        <v>2118</v>
+        <v>1992</v>
       </c>
       <c r="G1215" t="n">
         <v>1</v>
@@ -41998,7 +42004,7 @@
         <v>2120</v>
       </c>
       <c r="G1216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1216" t="s">
         <v>4</v>
@@ -42027,7 +42033,7 @@
         <v>2122</v>
       </c>
       <c r="G1217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1217" t="s">
         <v>4</v>
@@ -42062,6 +42068,35 @@
         <v>4</v>
       </c>
       <c r="I1218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>1218</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1219" t="n">
         <v>3</v>
       </c>
     </row>
